--- a/testHelpers/src/test/resources/testData/testData.xlsx
+++ b/testHelpers/src/test/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\document-archive\testHelpers\src\main\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\document-archive\testHelpers\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FBE631-62A3-4E61-95D0-E773B49D752E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DAB9E-A702-42DC-B04A-D2B0F0BC100F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11145" yWindow="4335" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rolesList" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ROLE</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>testData/documents/testDocumentUser1234.pdf</t>
+  </si>
+  <si>
+    <t>EXPECTED_TEST_STATUS</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -471,30 +477,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47825D57-C3C5-4DF0-A346-30856FEF6D54}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -504,10 +520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G4" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +534,10 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +556,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -559,8 +579,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,8 +602,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -598,6 +624,9 @@
       </c>
       <c r="F4" t="s">
         <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -607,56 +636,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546CD878-BAB3-4C23-8D74-002783B4A037}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8C661A-1589-4605-8BEA-8297A91D8062}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +723,10 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -693,8 +739,11 @@
       <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -707,8 +756,11 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -721,8 +773,11 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -735,8 +790,11 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -748,6 +806,9 @@
       </c>
       <c r="D5" t="s">
         <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
